--- a/desync_gene_expr/outputs/pseudotime_analysis/decreasing.xlsx
+++ b/desync_gene_expr/outputs/pseudotime_analysis/decreasing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="159">
   <si>
     <t>kw_p_value</t>
   </si>
@@ -85,9 +85,6 @@
     <t>helicase.activity</t>
   </si>
   <si>
-    <t>isomerase.activity</t>
-  </si>
-  <si>
     <t>kinase.activity</t>
   </si>
   <si>
@@ -106,21 +103,12 @@
     <t>protein.serine.threonine.kinase.activity</t>
   </si>
   <si>
-    <t>ribosome.binding</t>
-  </si>
-  <si>
     <t>RNA.helicase.activity</t>
   </si>
   <si>
     <t>rRNA.binding</t>
   </si>
   <si>
-    <t>single.stranded.DNA.binding</t>
-  </si>
-  <si>
-    <t>structural.constituent.of.chromatin</t>
-  </si>
-  <si>
     <t>translation.initiation.factor.activity</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>helicase activity</t>
   </si>
   <si>
-    <t>isomerase activity</t>
-  </si>
-  <si>
     <t>kinase activity</t>
   </si>
   <si>
@@ -157,21 +142,12 @@
     <t>protein serine/threonine kinase activity</t>
   </si>
   <si>
-    <t>ribosome binding</t>
-  </si>
-  <si>
     <t>RNA helicase activity</t>
   </si>
   <si>
     <t>rRNA binding</t>
   </si>
   <si>
-    <t>single-stranded DNA binding</t>
-  </si>
-  <si>
-    <t>structural constituent of chromatin</t>
-  </si>
-  <si>
     <t>translation initiation factor activity</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>plastid</t>
   </si>
   <si>
-    <t>polysomal.ribosome</t>
-  </si>
-  <si>
     <t>ribonucleoprotein.complex</t>
   </si>
   <si>
@@ -274,15 +247,15 @@
     <t>plasma membrane</t>
   </si>
   <si>
-    <t>polysomal ribosome</t>
-  </si>
-  <si>
     <t>ribonucleoprotein complex</t>
   </si>
   <si>
     <t>thylakoid</t>
   </si>
   <si>
+    <t>cellular.anatomical.entity</t>
+  </si>
+  <si>
     <t>chloroplast.inner.membrane</t>
   </si>
   <si>
@@ -310,18 +283,21 @@
     <t>mitochondrial.matrix</t>
   </si>
   <si>
+    <t>nucleoplasm</t>
+  </si>
+  <si>
     <t>nucleosome</t>
   </si>
   <si>
     <t>plastid.inner.membrane</t>
   </si>
   <si>
-    <t>small.subunit.processome</t>
-  </si>
-  <si>
     <t>small.ribosomal.subunit</t>
   </si>
   <si>
+    <t>chloroplast inner membrane</t>
+  </si>
+  <si>
     <t>chloroplast membrane</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t>plastid inner membrane</t>
   </si>
   <si>
-    <t>small-subunit processome</t>
-  </si>
-  <si>
     <t>small ribosomal subunit</t>
   </si>
   <si>
@@ -355,9 +328,6 @@
     <t>chloroplast.organization</t>
   </si>
   <si>
-    <t>cytoplasmic.translation</t>
-  </si>
-  <si>
     <t>embryo.development.ending.in.seed.dormancy</t>
   </si>
   <si>
@@ -382,15 +352,15 @@
     <t>protein.transport</t>
   </si>
   <si>
+    <t>response.to.cold</t>
+  </si>
+  <si>
     <t>ribosome.biogenesis</t>
   </si>
   <si>
     <t>rRNA.processing</t>
   </si>
   <si>
-    <t>cytoplasmic translation</t>
-  </si>
-  <si>
     <t>embryo development ending in seed dormancy</t>
   </si>
   <si>
@@ -409,6 +379,9 @@
     <t>protein transport</t>
   </si>
   <si>
+    <t>response to cold</t>
+  </si>
+  <si>
     <t>ribosome biogenesis</t>
   </si>
   <si>
@@ -418,24 +391,21 @@
     <t>translation</t>
   </si>
   <si>
+    <t>amino.acid.biosynthetic.process</t>
+  </si>
+  <si>
     <t>cell.cycle</t>
   </si>
   <si>
     <t>cell.division</t>
   </si>
   <si>
-    <t>cellular.amino.acid.biosynthetic.process</t>
-  </si>
-  <si>
     <t>cellular.response.to.DNA.damage.stimulus</t>
   </si>
   <si>
     <t>defense.response</t>
   </si>
   <si>
-    <t>developmental.process</t>
-  </si>
-  <si>
     <t>DNA.templated.transcription.termination</t>
   </si>
   <si>
@@ -445,36 +415,18 @@
     <t>DNA.replication</t>
   </si>
   <si>
-    <t>maturation.of.LSU.rRNA</t>
-  </si>
-  <si>
-    <t>nucleic.acid.phosphodiester.bond.hydrolysis</t>
-  </si>
-  <si>
     <t>photosynthesis</t>
   </si>
   <si>
     <t>protein.ubiquitination</t>
   </si>
   <si>
-    <t>regulation.of.translation</t>
-  </si>
-  <si>
-    <t>response.to.cold</t>
-  </si>
-  <si>
     <t>response.to.salt.stress</t>
   </si>
   <si>
     <t>response.to.water.deprivation</t>
   </si>
   <si>
-    <t>ribosomal.large.subunit.biogenesis</t>
-  </si>
-  <si>
-    <t>ribosomal.small.subunit.assembly</t>
-  </si>
-  <si>
     <t>RNA.modification</t>
   </si>
   <si>
@@ -490,21 +442,21 @@
     <t>translational.initiation</t>
   </si>
   <si>
+    <t>transmembrane.transport</t>
+  </si>
+  <si>
+    <t>cell cycle</t>
+  </si>
+  <si>
     <t>cell division</t>
   </si>
   <si>
-    <t>cellular amino acid biosynthetic process</t>
-  </si>
-  <si>
     <t>cellular response to DNA damage stimulus</t>
   </si>
   <si>
     <t>defense response</t>
   </si>
   <si>
-    <t>developmental process</t>
-  </si>
-  <si>
     <t>DNA-templated transcription termination</t>
   </si>
   <si>
@@ -514,33 +466,15 @@
     <t>DNA replication</t>
   </si>
   <si>
-    <t>maturation of LSU-rRNA</t>
-  </si>
-  <si>
-    <t>nucleic acid phosphodiester bond hydrolysis</t>
-  </si>
-  <si>
     <t>protein ubiquitination</t>
   </si>
   <si>
-    <t>regulation of translation</t>
-  </si>
-  <si>
-    <t>response to cold</t>
-  </si>
-  <si>
     <t>response to salt stress</t>
   </si>
   <si>
     <t>response to water deprivation</t>
   </si>
   <si>
-    <t>ribosomal large subunit biogenesis</t>
-  </si>
-  <si>
-    <t>ribosomal small subunit assembly</t>
-  </si>
-  <si>
     <t>RNA modification</t>
   </si>
   <si>
@@ -554,6 +488,9 @@
   </si>
   <si>
     <t>translational initiation</t>
+  </si>
+  <si>
+    <t>transmembrane transport</t>
   </si>
   <si>
     <t>tRNA processing</t>
@@ -639,13 +576,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.081547627304087E-16</v>
+        <v>3.537288409068156E-13</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999471833594517</v>
+        <v>0.9999980443196157</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -660,10 +597,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06467156932733964</v>
+        <v>0.12182101006058421</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4908220816698805</v>
+        <v>0.5269941524911401</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -677,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230627391874467</v>
+        <v>0.13427057972244327</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6232789878533085</v>
+        <v>0.3997836797049287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999980799969204</v>
+        <v>0.9992942932277904</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -696,16 +633,16 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999993816261</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999526279775756</v>
+        <v>0.9999808246132312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05343971092977584</v>
+        <v>0.06452234756856068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.21939405896636255</v>
+        <v>0.08994889312222709</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -717,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999960617080168</v>
+        <v>0.9999984945390054</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999994996974502</v>
+        <v>0.9999999995850102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01138222100055486</v>
+        <v>0.03389690702062298</v>
       </c>
       <c r="G6" t="n">
-        <v>0.19366850613717257</v>
+        <v>0.09574404466897324</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999968410530131</v>
+        <v>0.9999638889522093</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -740,22 +677,22 @@
         <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.029628703067404727</v>
+        <v>0.3474568405358469</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32834508534590023</v>
+        <v>0.7710988189340768</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999945236672794</v>
+        <v>0.9999964431593557</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999999999999198</v>
+        <v>0.9942138832244044</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02375861104329302</v>
+        <v>0.23725355871781806</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004210315840513568</v>
+        <v>0.21625283380598037</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -765,25 +702,25 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>5.17332511482671E-5</v>
+        <v>1.8459457180763916E-4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006236482093671558</v>
+        <v>0.008815024468863397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5711364282098421</v>
+        <v>0.6082076002800612</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9646405070412938</v>
+        <v>0.9960527433216286</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2333341465795584E-5</v>
+        <v>5.1552064635584927E-5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.714965504224125E-7</v>
+        <v>6.293445177552037E-6</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8218033306808161</v>
+        <v>0.44881830638996956</v>
       </c>
       <c r="K8"/>
     </row>
@@ -792,28 +729,28 @@
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999999999985202</v>
+        <v>0.9999999999984195</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999839293011196</v>
+        <v>0.9999994995967169</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09223107136736397</v>
+        <v>0.15381486364528418</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2727349078507664</v>
+        <v>0.15742537746600294</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9999999999977381</v>
+        <v>0.9999999861247382</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999996599140891</v>
+        <v>0.9999998047199617</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04417137099568058</v>
+        <v>0.39944431192463337</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0294576864289251E-4</v>
+        <v>3.0024026943364923E-4</v>
       </c>
     </row>
   </sheetData>
@@ -876,28 +813,16 @@
       <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.1370301693420703E-15</v>
+        <v>4.59862280520898E-11</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999997286</v>
+        <v>0.9999999826512088</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -912,20 +837,16 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999752027565</v>
+        <v>0.9999893710253015</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999803</v>
+        <v>0.9999999999981264</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -939,23 +860,19 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999992821409</v>
+        <v>0.99999984109959</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998731266681884</v>
+        <v>0.9994380544083947</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -968,26 +885,22 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999155425973092</v>
+        <v>0.971720678020641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999972551769624</v>
+        <v>0.9986377023757301</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999887542232687</v>
+        <v>0.9980587554796446</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9155232176974674</v>
+        <v>0.7757901242303449</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -999,29 +912,25 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.999999909607383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999755826</v>
+        <v>0.9971839671103823</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999996879727115</v>
+        <v>0.7693007056179316</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.9999700617544589</v>
       </c>
       <c r="H6" t="n">
-        <v>0.985482748216372</v>
+        <v>0.15611311005867246</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1032,32 +941,28 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999847669</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999916100678357</v>
+        <v>0.9999995854245428</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9709636801607505</v>
+        <v>0.999358894233956</v>
       </c>
       <c r="G7" t="n">
-        <v>0.999999999344629</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5383653885454944</v>
+        <v>0.7925060547881135</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9999999998337734</v>
+        <v>0.9999967587354078</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -1067,35 +972,31 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>0.9999689278591821</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999997249</v>
+        <v>0.9999999998084802</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999993586682163</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.9989728284356841</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9885119489056958</v>
+        <v>0.9997358822207436</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>0.7839223970711657</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999403558201</v>
+        <v>0.9988337656767069</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1104,38 +1005,34 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999711537366562</v>
+        <v>0.9999995283551619</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999137446763</v>
+        <v>0.9965176859407031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999999979509141</v>
+        <v>0.8382470794250388</v>
       </c>
       <c r="G9" t="n">
-        <v>0.984981407495424</v>
+        <v>0.9999415981824139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9999999999891759</v>
+        <v>0.22753242881874625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9988225899764613</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="J9" t="n">
-        <v>0.755341826609925</v>
+        <v>0.9999903666511878</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9992940938285914</v>
+        <v>0.8353110274889664</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -1143,509 +1040,257 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999997720378</v>
+        <v>0.9995750643170601</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999809977887256</v>
+        <v>0.9577227302074515</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9760249638994133</v>
+        <v>0.6775981744666502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9999999923713301</v>
+        <v>0.9932471132801436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5913068050653913</v>
+        <v>0.16292585097900147</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9999999978149761</v>
+        <v>0.9999905598341915</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>0.997112246761385</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9999997246890648</v>
+        <v>0.6645439799309547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7986489384191289</v>
+        <v>0.9999994889178592</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999102978777117</v>
+        <v>0.9999947687816656</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9899127544064831</v>
+        <v>0.9944977899747203</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7727214629001333</v>
+        <v>0.884802905051213</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9987031076565447</v>
+        <v>0.9998080187501828</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2857258453033642</v>
+        <v>0.32964191259274367</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9994962639582192</v>
+        <v>0.9999999996693912</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9999872865879643</v>
+        <v>0.9999479056537492</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9969372140188787</v>
+        <v>0.8727490061353962</v>
       </c>
       <c r="L11" t="n">
-        <v>0.46801134699719715</v>
+        <v>0.999999999999618</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9999990391056389</v>
+        <v>0.9999999995029404</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999970581149075</v>
+        <v>0.9670510979065011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.998235005227966</v>
+        <v>0.9978657817764482</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8742110398769813</v>
+        <v>0.9974869406952026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9999262329250523</v>
+        <v>0.810607995291334</v>
       </c>
       <c r="H12" t="n">
-        <v>0.38091246071318463</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9999771278535702</v>
+        <v>0.24215650918553577</v>
       </c>
       <c r="J12" t="n">
-        <v>0.999999952254</v>
+        <v>0.8179808737961477</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9997148546904819</v>
+        <v>0.9995157841507891</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5872622576313169</v>
+        <v>0.2985434550845655</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9999999992160608</v>
+        <v>0.19519134244635428</v>
       </c>
       <c r="N12" t="n">
-        <v>0.999999999999973</v>
+        <v>0.37260859912110844</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9980322714763303</v>
+        <v>0.9999978512450213</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998509059264714</v>
+        <v>0.999999999999987</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999429799430946</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9616276403629055</v>
+        <v>0.9999358502913055</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9999999999995951</v>
+        <v>0.9985000115837396</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9875088292346148</v>
+        <v>0.9241041780157453</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7986785792016782</v>
+        <v>0.9999077912558892</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9910526729059452</v>
+        <v>0.9999999999998599</v>
       </c>
       <c r="L13" t="n">
-        <v>0.999999962878169</v>
+        <v>0.9389411887478271</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7954106727292788</v>
+        <v>0.8023026153671104</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4539016709468713</v>
+        <v>0.9467532710478633</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5837879497079572</v>
+        <v>0.9978586311924486</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9987776151673964</v>
+        <v>0.6899757118260421</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999440534249356</v>
+        <v>0.89526771392604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999977445510579</v>
+        <v>0.8101850096215033</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9349188836986778</v>
+        <v>0.23322673043170727</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0</v>
+        <v>0.9999861151943222</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9856250819861252</v>
+        <v>0.012551407137140425</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6432942978130534</v>
+        <v>0.26073593305990217</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9890940828763467</v>
+        <v>0.91410766224995</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999999995697956</v>
+        <v>0.02488215611444189</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6687899314103525</v>
+        <v>0.02021236332877585</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3332131107592663</v>
+        <v>0.054397748477656216</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4443555647544646</v>
+        <v>0.9999996462845482</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.8499465550270885</v>
       </c>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999993939934911</v>
+        <v>1.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999999408197</v>
+        <v>0.9999999719442806</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999999999999994</v>
+        <v>0.9997810142334258</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9992020749821258</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9999999390117212</v>
+        <v>0.8155425465781725</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9999613223128275</v>
+        <v>0.9998658179916523</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9443386528760266</v>
+        <v>0.999999999999992</v>
       </c>
       <c r="K15" t="n">
-        <v>0.999986717223059</v>
+        <v>0.9995425522804594</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9999999999999677</v>
+        <v>0.9997966048828189</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9518787248971199</v>
+        <v>0.9881061216550362</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6984801635893192</v>
+        <v>0.999512900842662</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8146019315219893</v>
+        <v>0.8444248701418169</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9999972048312363</v>
+        <v>0.9999793346021066</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9999996847347185</v>
-      </c>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-    </row>
-    <row r="16">
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9999999830452246</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9999999999992425</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9999977515824146</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9999999998661221</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9999996997287748</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9996336291589009</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.9999999463383752</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9994234785853162</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.9651127298631641</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.989555378312921</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.9999999293063269</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.9999999982183898</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-    </row>
-    <row r="17">
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9593428337588946</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9894390087272447</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9898425424739103</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.6930143678935812</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9999992829410205</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.8476679183584741</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3564688843300442</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.863308921922256</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.9998170825746461</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.3694248884001958</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.13900633191741596</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.20428631628991345</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.999999999997803</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.9999999743454782</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.9982660933133471</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.9999241805851193</v>
-      </c>
-      <c r="T17"/>
-      <c r="U17"/>
-    </row>
-    <row r="18">
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.8653095760512446</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9453610437366302</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9013473927063407</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.21915334708160872</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.9999889000482363</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.5240840313100937</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0330101669601125</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.5148866311110815</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.9971743916888843</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.049812207314673174</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.01777483568537752</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.02511316115557083</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.9999999999890399</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.9999997126534911</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.9801029535291835</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.9995964169582846</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U18"/>
-    </row>
-    <row r="19">
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9999999999937524</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.999999999998895</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.9999998737123396</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.9994143161112159</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.9999999984139205</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9992250116279141</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.9999999999619328</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.9999959623194211</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9990894605913708</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.9359938353546333</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.9790168487523733</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.9991715283531454</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.9993031799565691</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.99999999736996</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.9999999999958181</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.9584305924743457</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.7435530402256678</v>
+        <v>0.2670844552694276</v>
       </c>
     </row>
   </sheetData>
@@ -1667,81 +1312,78 @@
       </c>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>65</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.706546334877159E-184</v>
+        <v>1.3233711678526907E-168</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999995011</v>
+        <v>1.0</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -1763,14 +1405,13 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999998357015</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="n">
         <v>1.0</v>
@@ -1794,20 +1435,19 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3"/>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9986949370432322</v>
+        <v>0.9990158392140008</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999992507470278</v>
+        <v>0.9999548226660435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999997389932559</v>
+        <v>0.9999747430680752</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -1827,23 +1467,22 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4"/>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4845560025733562E-7</v>
+        <v>8.493727943204021E-11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0013905616343034</v>
+        <v>2.0861163623775436E-4</v>
       </c>
       <c r="F5" t="n">
-        <v>8.099236729142145E-5</v>
+        <v>9.388319752723362E-6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2988676399504637E-4</v>
+        <v>2.884083171394991E-6</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -1862,26 +1501,25 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5"/>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>4.06400609176405E-6</v>
+        <v>1.64564938078815E-5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0051885832318328</v>
+        <v>0.04653188610800241</v>
       </c>
       <c r="F6" t="n">
-        <v>4.584161339218351E-4</v>
+        <v>0.008645501246379084</v>
       </c>
       <c r="G6" t="n">
-        <v>7.150351434977997E-4</v>
+        <v>9.387058274256121E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.9999930957094945</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1899,29 +1537,28 @@
       <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
-      <c r="Y6"/>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7422508708241367E-14</v>
+        <v>7.327471962526033E-13</v>
       </c>
       <c r="E7" t="n">
-        <v>9.854317362112397E-11</v>
+        <v>6.44955044926121E-9</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5591750940634483E-12</v>
+        <v>3.8041869654392713E-10</v>
       </c>
       <c r="G7" t="n">
-        <v>2.051103731304238E-11</v>
+        <v>3.44931860851716E-11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.20001210028466176</v>
+        <v>0.7094020279732143</v>
       </c>
       <c r="I7" t="n">
-        <v>0.13434454230422488</v>
+        <v>0.11380169565158205</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -1938,32 +1575,31 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
-      <c r="Y7"/>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.1858959914643492E-12</v>
+        <v>1.630384716122535E-10</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4083846855992306E-14</v>
+        <v>2.7736701824210286E-12</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0444756998472258E-12</v>
+        <v>1.9991786004425194E-12</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12761978146127406</v>
+        <v>0.7710335879066299</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07841060031030167</v>
+        <v>0.0894428009210606</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>0.9999999999999961</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1979,29 +1615,28 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
-      <c r="Y8"/>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D9" t="n">
-        <v>2.3014324002090802E-8</v>
+        <v>5.3361123408812716E-8</v>
       </c>
       <c r="E9" t="n">
-        <v>6.022253615789452E-7</v>
+        <v>7.831399834401509E-6</v>
       </c>
       <c r="F9" t="n">
-        <v>6.618304693173371E-8</v>
+        <v>1.301999907998841E-6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.204986365190621E-8</v>
+        <v>4.216235727216855E-8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7092118624722725</v>
+        <v>0.9666824695252209</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6142488348575232</v>
+        <v>0.5527288082746187</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
@@ -2022,38 +1657,37 @@
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
-      <c r="Y9"/>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8893489842814378</v>
+        <v>0.9540241879207456</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8585322561141779</v>
+        <v>0.9863136978193308</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7615817088359548</v>
+        <v>0.9676752199914056</v>
       </c>
       <c r="G10" t="n">
-        <v>0.34259258217077404</v>
+        <v>0.5059879925856923</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9999999999993987</v>
+        <v>0.9997433664184268</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9999999999999983</v>
+        <v>0.9999999995781106</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5234307557353152</v>
+        <v>0.18609457555591669</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5091263830490619</v>
+        <v>0.23088126433851963</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8229520487071158</v>
+        <v>0.5312892944024871</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -2067,41 +1701,40 @@
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
-      <c r="Y10"/>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002458437574184291</v>
+        <v>0.002316989863396901</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006148683418230716</v>
+        <v>0.023227601315342628</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0019572979039461647</v>
+        <v>0.009243841016826737</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5804641773384827E-4</v>
+        <v>3.988019092665551E-4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9999702376754909</v>
+        <v>0.999999999520795</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9998690397934822</v>
+        <v>0.9997998749608036</v>
       </c>
       <c r="J11" t="n">
-        <v>0.99999324279208</v>
+        <v>0.9998665210710864</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9999974318802363</v>
+        <v>0.9999956050696992</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9999998946474714</v>
+        <v>0.9999983077631093</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9998527928710365</v>
+        <v>0.9973089159210305</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -2114,44 +1747,43 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
-      <c r="Y11"/>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9966608353735681</v>
+        <v>0.9630623912135687</v>
       </c>
       <c r="E12" t="n">
-        <v>0.997086867218443</v>
+        <v>0.9993252369096334</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9824572322478</v>
+        <v>0.9949090532417735</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7432844748366692</v>
+        <v>0.6187649204464701</v>
       </c>
       <c r="H12" t="n">
-        <v>0.10287550819228142</v>
+        <v>0.008214285140084598</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2621911753211603</v>
+        <v>0.5545903462982589</v>
       </c>
       <c r="J12" t="n">
-        <v>5.259106106159095E-8</v>
+        <v>9.272653987979496E-7</v>
       </c>
       <c r="K12" t="n">
-        <v>1.0383208737252403E-9</v>
+        <v>1.2534012383547122E-8</v>
       </c>
       <c r="L12" t="n">
-        <v>2.0211552476567807E-4</v>
+        <v>6.771562464635839E-4</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9999416469184115</v>
+        <v>0.9999998372700594</v>
       </c>
       <c r="N12" t="n">
-        <v>0.21704116512067917</v>
+        <v>0.3100717797004958</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -2163,47 +1795,46 @@
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
-      <c r="Y12"/>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7377372399130533</v>
+        <v>0.4989586963952659</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8714628138231413</v>
+        <v>0.9393883615148376</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6961750099216095</v>
+        <v>0.8290018312911213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.32459587256091493</v>
+        <v>0.22666816027645442</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9317499451456374</v>
+        <v>0.5151906764948474</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9826029271869515</v>
+        <v>0.9975563682376519</v>
       </c>
       <c r="J13" t="n">
-        <v>8.573297853864403E-5</v>
+        <v>3.6833631089094876E-4</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0738481418526291E-5</v>
+        <v>5.7681952011279236E-5</v>
       </c>
       <c r="L13" t="n">
-        <v>0.013862561284265884</v>
+        <v>0.025152320614060475</v>
       </c>
       <c r="M13" t="n">
-        <v>0.99999999860409</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7321040375331715</v>
+        <v>0.8116276747528741</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9999999618330033</v>
+        <v>0.9999999431521952</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -2214,11 +1845,10 @@
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
-      <c r="Y13"/>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -2233,31 +1863,31 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.5954974619258877E-7</v>
+        <v>0.012229302056913416</v>
       </c>
       <c r="I14" t="n">
-        <v>4.339631798355725E-8</v>
+        <v>2.889690841612058E-6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9999999998981611</v>
+        <v>1.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999999757076485</v>
+        <v>0.9999999994417827</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999999982148999</v>
+        <v>0.9999999999999635</v>
       </c>
       <c r="M14" t="n">
-        <v>0.013090765650424885</v>
+        <v>0.003995785723470147</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9807761254827915</v>
+        <v>0.9923543013468911</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0</v>
+        <v>2.51687559682523E-13</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
@@ -2267,53 +1897,52 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
-      <c r="Y14"/>
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.2785272840432071E-10</v>
+        <v>4.712811918494708E-9</v>
       </c>
       <c r="F15" t="n">
-        <v>1.1690648449302898E-13</v>
+        <v>9.157008484805829E-12</v>
       </c>
       <c r="G15" t="n">
-        <v>1.2232519441823797E-9</v>
+        <v>3.902239642528116E-10</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9691941614920305</v>
+        <v>0.9999998057060072</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9138054783905031</v>
+        <v>0.8753101129706966</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9711468435500173</v>
+        <v>0.9544720829095643</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9649189284366542</v>
+        <v>0.9811856090003186</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9993425948856617</v>
+        <v>0.9988681934645515</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9983797214453003</v>
+        <v>0.9523631732499133</v>
       </c>
       <c r="N15" t="n">
         <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>3.0609825785177236E-10</v>
+        <v>7.1327735939874515E-9</v>
       </c>
       <c r="P15" t="n">
-        <v>7.332418057487411E-4</v>
+        <v>0.0027194947925679447</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.010954496458432827</v>
+        <v>0.1071993750235356</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -2322,56 +1951,55 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
-      <c r="Y15"/>
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D16" t="n">
-        <v>0.012041966757897371</v>
+        <v>7.455303618909559E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.031633177571281035</v>
+        <v>0.019815449181294076</v>
       </c>
       <c r="F16" t="n">
-        <v>0.010937972012058705</v>
+        <v>0.006335086673648349</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002420146040797433</v>
+        <v>2.988728178707767E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9999999999346287</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9999999972631369</v>
+        <v>0.9999906120031437</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9840890555865537</v>
+        <v>0.990958266851946</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9861436580282851</v>
+        <v>0.9983930181577116</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9988346326275248</v>
+        <v>0.9996606740521229</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9999999408858588</v>
+        <v>0.9995635621976704</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9999999999967709</v>
+        <v>1.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5468139528020112</v>
+        <v>0.31294106398337085</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9628419655782214</v>
+        <v>0.8689022426014299</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.37410003868411135</v>
+        <v>0.7944819893766693</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9999999999997141</v>
+        <v>1.0</v>
       </c>
       <c r="S16"/>
       <c r="T16"/>
@@ -2379,461 +2007,383 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
-      <c r="Y16"/>
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7321306512281222</v>
+        <v>0.15004374432494838</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8210669764198228</v>
+        <v>0.6304952704458293</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6448510311296451</v>
+        <v>0.421045055469488</v>
       </c>
       <c r="G17" t="n">
-        <v>0.27224338220651667</v>
+        <v>0.05665655300146122</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9990488822423034</v>
+        <v>0.9983349232574443</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9998952233909787</v>
+        <v>0.9999999999389966</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0032339378641761396</v>
+        <v>0.04759366682440813</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0010966745439781045</v>
+        <v>0.03830437501667683</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08477544232474732</v>
+        <v>0.33208346125770927</v>
       </c>
       <c r="M17" t="n">
-        <v>0.999999999999576</v>
+        <v>1.0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9218624152208851</v>
+        <v>0.9951641274683487</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9999975382613184</v>
+        <v>0.9982783298638632</v>
       </c>
       <c r="P17" t="n">
-        <v>1.0</v>
+        <v>0.9999999929006403</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.772138157387417E-11</v>
+        <v>3.4757147637787256E-6</v>
       </c>
       <c r="R17" t="n">
-        <v>0.11493685939666498</v>
+        <v>0.6775682692643183</v>
       </c>
       <c r="S17" t="n">
-        <v>0.996781421345286</v>
+        <v>0.9990919534906291</v>
       </c>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
-      <c r="Y17"/>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D18" t="n">
-        <v>6.347086967117832E-9</v>
+        <v>4.17360590532212E-11</v>
       </c>
       <c r="E18" t="n">
-        <v>3.6807897846324877E-6</v>
+        <v>1.847934205323476E-6</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0432661518299255E-7</v>
+        <v>9.881862483851478E-8</v>
       </c>
       <c r="G18" t="n">
-        <v>4.3088255097245565E-7</v>
+        <v>1.4821781801899192E-8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9948413714465284</v>
+        <v>0.999722652767341</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9851323471320449</v>
+        <v>0.8356341038680917</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9999352860332376</v>
+        <v>0.9999892861845129</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9999663369797739</v>
+        <v>0.9999999424418698</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9999993845527773</v>
+        <v>0.9999999818603116</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9972890830246146</v>
+        <v>0.8480293641797322</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0</v>
+        <v>0.999999999999997</v>
       </c>
       <c r="O18" t="n">
-        <v>9.810503720659725E-4</v>
+        <v>1.6056418755150403E-4</v>
       </c>
       <c r="P18" t="n">
-        <v>0.10213850498274046</v>
+        <v>0.03293967804170128</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8245927820733564</v>
+        <v>0.9957091572670642</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.9999999871292504</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9999999993813706</v>
+        <v>0.999999993609333</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4478743266577252</v>
+        <v>0.6111671527083743</v>
       </c>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
-      <c r="Y18"/>
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999996139852279</v>
+        <v>0.999998462795641</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999896587652495</v>
+        <v>0.9999999881555052</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999829035208115</v>
+        <v>0.9999994555605654</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9430056849799617</v>
+        <v>0.9440925077636723</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001279620728047659</v>
+        <v>2.348343501878958E-6</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008856552845974308</v>
+        <v>0.013865614475369381</v>
       </c>
       <c r="J19" t="n">
-        <v>1.426156970296688E-10</v>
+        <v>9.464619088461745E-10</v>
       </c>
       <c r="K19" t="n">
-        <v>6.725731083179198E-13</v>
+        <v>7.022160630754115E-13</v>
       </c>
       <c r="L19" t="n">
-        <v>5.508820520194746E-6</v>
+        <v>7.605671121124757E-6</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9959434357534387</v>
+        <v>0.9993279961686896</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0459651786451033</v>
+        <v>0.04137891557184836</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9999999996567295</v>
+        <v>0.9999992912176835</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9989683433720373</v>
+        <v>0.9885599342177875</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.220446049250313E-16</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1725695469549965</v>
+        <v>0.027270914087462073</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9965640159370086</v>
+        <v>0.775813680862145</v>
       </c>
       <c r="U19" t="n">
-        <v>1.0165602549183639E-5</v>
+        <v>1.2261848303385392E-7</v>
       </c>
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
-      <c r="Y19"/>
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D20" t="n">
-        <v>1.5082102233776595E-10</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.442231312154263E-8</v>
+        <v>3.02691760545315E-9</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0125119631609891E-9</v>
+        <v>1.9644952331532295E-11</v>
       </c>
       <c r="G20" t="n">
-        <v>1.034102581343177E-9</v>
+        <v>9.289324864880655E-11</v>
       </c>
       <c r="H20" t="n">
-        <v>0.39819996654116885</v>
+        <v>0.999059490219346</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3053395675034041</v>
+        <v>0.5799546965650323</v>
       </c>
       <c r="J20" t="n">
-        <v>1.0</v>
+        <v>0.999740009817638</v>
       </c>
       <c r="K20" t="n">
-        <v>1.0</v>
+        <v>0.9999927069914455</v>
       </c>
       <c r="L20" t="n">
-        <v>1.0</v>
+        <v>0.9999992095472222</v>
       </c>
       <c r="M20" t="n">
-        <v>0.624571798620885</v>
+        <v>0.7766178095768874</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9999941676029919</v>
+        <v>1.0</v>
       </c>
       <c r="O20" t="n">
-        <v>7.23325406692954E-6</v>
+        <v>5.424424676103712E-8</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0014933608282448052</v>
+        <v>0.0011945398002183305</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9999999999992519</v>
+        <v>0.9116733670223014</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9888839151038838</v>
+        <v>0.9999999861812293</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9900996194196676</v>
+        <v>0.9999999978686227</v>
       </c>
       <c r="T20" t="n">
-        <v>0.017931032803193858</v>
+        <v>0.3563918789324696</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9999609126964497</v>
+        <v>1.0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.345778273495142E-8</v>
+        <v>1.220135104063047E-13</v>
       </c>
       <c r="W20"/>
       <c r="X20"/>
-      <c r="Y20"/>
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.7376655669920638E-11</v>
+        <v>1.721727704850906E-8</v>
       </c>
       <c r="F21" t="n">
-        <v>4.75175454539567E-14</v>
+        <v>1.7586088141285927E-10</v>
       </c>
       <c r="G21" t="n">
-        <v>5.7949423037939596E-11</v>
+        <v>3.777066437393728E-10</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6210026040455678</v>
+        <v>0.9997114667967585</v>
       </c>
       <c r="I21" t="n">
-        <v>0.47403480091476125</v>
+        <v>0.7031868736616438</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9999941313398297</v>
+        <v>0.9995984351624231</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9999976857914441</v>
+        <v>0.9999853653472394</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9999999879749506</v>
+        <v>0.9999983911230153</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9415778315488187</v>
+        <v>0.8292096046264781</v>
       </c>
       <c r="N21" t="n">
         <v>1.0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.099566490254006E-10</v>
+        <v>5.065620990452047E-7</v>
       </c>
       <c r="P21" t="n">
-        <v>1.0334930197475334E-4</v>
+        <v>0.003601960738361387</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8107514101372545</v>
+        <v>0.8982002956148356</v>
       </c>
       <c r="R21" t="n">
-        <v>0.999999281371165</v>
+        <v>0.9999999991233494</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9999971088761511</v>
+        <v>0.9999999996490015</v>
       </c>
       <c r="T21" t="n">
-        <v>0.016928808991080735</v>
+        <v>0.4631247919269885</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5646151868841116E-14</v>
+        <v>4.024114375056342E-12</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9999967776090896</v>
+        <v>1.0</v>
       </c>
       <c r="X21"/>
-      <c r="Y21"/>
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D22" t="n">
+        <v>0.9999978241584087</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.999999963509493</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9999999898006688</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9999999999999982</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.955921186937221E-5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.011954514355223433</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.6030704541591945E-9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.5486101290207444E-10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9.472700126522682E-7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.798614091705855</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0034891563052055208</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9169030212774867</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.5868831425927438</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0.0</v>
       </c>
-      <c r="E22" t="n">
-        <v>7.804772383934733E-10</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4.818923038385492E-12</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9.180808335784718E-10</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.863134035083648</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.7588391054407779</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.9999464282156466</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.9999709375591019</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.9999997542707239</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9791325067705327</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>8.290021291657013E-8</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.0014224908179760742</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.6850348911017269</v>
-      </c>
       <c r="R22" t="n">
-        <v>0.9999999989537397</v>
+        <v>3.6315994544899866E-8</v>
       </c>
       <c r="S22" t="n">
-        <v>0.999999898469631</v>
+        <v>0.0031726898172234064</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06804055428790534</v>
+        <v>0.23701680717131535</v>
       </c>
       <c r="U22" t="n">
-        <v>1.0</v>
+        <v>5.858357839949591E-7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3979262192265196E-11</v>
+        <v>0.9976662464680144</v>
       </c>
       <c r="W22" t="n">
-        <v>0.999972897280836</v>
+        <v>7.74178821050242E-9</v>
       </c>
       <c r="X22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y22"/>
-    </row>
-    <row r="23">
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9999998094046783</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999999997435</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9999999999999893</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9999999999999564</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.015065410477787089</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.03211865259342772</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.230266899465704E-8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.2918921205317133E-9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.331196284845795E-6</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.7682005734927084</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.008519660322148126</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.9882912162884152</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.8431982179131939</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.598065626273737E-6</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.042286598835336586</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.7792281520138019</v>
-      </c>
-      <c r="U23" t="n">
-        <v>7.392885598977994E-5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.9995746025415703</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.487058522460117E-7</v>
-      </c>
-      <c r="X23" t="n">
-        <v>8.187242395152339E-8</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>7.526216796449603E-7</v>
+        <v>2.705483914677842E-8</v>
       </c>
     </row>
   </sheetData>
@@ -2855,54 +2405,57 @@
       </c>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.3079805926955745E-24</v>
+        <v>1.8127359750958958E-15</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999715968738888</v>
+        <v>0.9999999999998231</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2916,16 +2469,17 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
+      <c r="Q2"/>
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999520211922</v>
+        <v>0.9999263392535043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.996206431289419</v>
+        <v>0.999994382271046</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -2938,19 +2492,20 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9929975245085753</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999996028742332</v>
+        <v>0.9999999999909152</v>
       </c>
       <c r="F4" t="n">
-        <v>0.925582515476738</v>
+        <v>0.9998140425710044</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -2962,22 +2517,23 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4816358241471741</v>
+        <v>0.9812685574620035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.038437456609000775</v>
+        <v>0.9921043701732233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8897158793686369</v>
+        <v>0.9999984405142665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003884153823643155</v>
+        <v>0.9709079078157679</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2988,25 +2544,26 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>0.985544109100232</v>
+        <v>0.9707675809284553</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7111802628579367</v>
+        <v>0.880366472447117</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999736007835923</v>
+        <v>0.2979982664712515</v>
       </c>
       <c r="G6" t="n">
-        <v>0.37626035642580347</v>
+        <v>0.9800697968704377</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999981289173152</v>
+        <v>0.04495138673739585</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3016,28 +2573,29 @@
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>0.9921641053089966</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999237874785389</v>
+        <v>0.9596749304727947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999999956753564</v>
+        <v>0.549033676898134</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9892104524848427</v>
+        <v>0.9950537700011823</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5728848948892781</v>
+        <v>0.15890800486752388</v>
       </c>
       <c r="I7" t="n">
-        <v>0.99171823230197</v>
+        <v>1.0</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -3046,31 +2604,32 @@
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8968155468919089</v>
+        <v>0.9999984632200266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.29679536850097543</v>
+        <v>0.9998788382399423</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9957166135344679</v>
+        <v>0.9140312077265985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06984944889898881</v>
+        <v>0.9999996414664547</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999996574973523</v>
+        <v>0.45020151572664235</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999999999999893</v>
+        <v>0.9995989341836047</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9331663446699775</v>
+        <v>0.9999620878739257</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -3078,239 +2637,293 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999342594125337</v>
+        <v>0.9924323459107245</v>
       </c>
       <c r="E9" t="n">
-        <v>0.95668504635616</v>
+        <v>0.958094689964299</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999999971166325</v>
+        <v>0.5153711153862729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7402330137411248</v>
+        <v>0.995312514262576</v>
       </c>
       <c r="H9" t="n">
-        <v>0.98916515075895</v>
+        <v>0.13082801200714145</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999989568131509</v>
+        <v>0.9999999999999969</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999804587162566</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9999496311520116</v>
+        <v>0.9999721988401287</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3083678980713549</v>
+        <v>0.9997711345029137</v>
       </c>
       <c r="E10" t="n">
-        <v>0.019701901153489243</v>
+        <v>0.9970895383352194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7417536077850481</v>
+        <v>0.8291085130983943</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002021617287720323</v>
+        <v>0.9998934617640043</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9999999980713375</v>
+        <v>0.39063785490777914</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9998209187461078</v>
+        <v>0.9999999558068381</v>
       </c>
       <c r="J10" t="n">
-        <v>0.38511199860584355</v>
+        <v>0.9999999991049819</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999901785498893</v>
+        <v>0.999999993414046</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9453534441885355</v>
+        <v>0.9999999997729709</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999052507</v>
+        <v>0.5778463373975161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999755015232</v>
+        <v>0.2940917647050745</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999990438050983</v>
+        <v>0.013120342831214438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9998014784344341</v>
+        <v>0.6330733446687751</v>
       </c>
       <c r="H11" t="n">
-        <v>0.33940756030059305</v>
+        <v>4.1228213633270894E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9549124157546844</v>
+        <v>0.9999987461934828</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9999999983710163</v>
+        <v>0.9999957200512076</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7898546620262176</v>
+        <v>0.8993291286510262</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9990302364544759</v>
+        <v>0.999984822695599</v>
       </c>
       <c r="M11" t="n">
-        <v>0.20264947061128524</v>
+        <v>0.9985912863436267</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D12" t="n">
-        <v>3.2782219807880875E-4</v>
+        <v>0.8644798972010306</v>
       </c>
       <c r="E12" t="n">
-        <v>5.194767271898826E-8</v>
+        <v>0.6742442751499613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.021767290264806616</v>
+        <v>0.1393600369553163</v>
       </c>
       <c r="G12" t="n">
-        <v>2.550577526960751E-10</v>
+        <v>0.8929219884021377</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9867731057935917</v>
+        <v>0.01616982302600589</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8454497546721896</v>
+        <v>0.999999998178709</v>
       </c>
       <c r="J12" t="n">
-        <v>8.642896930083355E-4</v>
+        <v>0.9999999809453439</v>
       </c>
       <c r="K12" t="n">
-        <v>0.784810876058509</v>
+        <v>0.9887040786508077</v>
       </c>
       <c r="L12" t="n">
-        <v>0.162259377760394</v>
+        <v>0.9999999052695381</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9998610588811119</v>
+        <v>0.9999494768181075</v>
       </c>
       <c r="N12" t="n">
-        <v>1.625584970161853E-4</v>
+        <v>0.9999999999998376</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
+      <c r="Q12"/>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1897144197533308</v>
+        <v>0.9999999989236882</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004275661006495568</v>
+        <v>0.9999999999998271</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6556601613515112</v>
+        <v>0.9999999893993754</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1678303772332264E-4</v>
+        <v>0.9999999915555028</v>
       </c>
       <c r="H13" t="n">
-        <v>0.999999999582245</v>
+        <v>0.9996332589106454</v>
       </c>
       <c r="I13" t="n">
-        <v>0.999820610930854</v>
+        <v>0.8410491883333262</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2605223214395873</v>
+        <v>0.9358967768980244</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9998954256453784</v>
+        <v>0.9993816333546721</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9247075689756385</v>
+        <v>0.9338940144726665</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0</v>
+        <v>0.992727762020982</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1148635418494427</v>
+        <v>0.2776204905413633</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9990212649004305</v>
+        <v>0.6243059863037456</v>
       </c>
       <c r="P13"/>
+      <c r="Q13"/>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9041840515198275</v>
+        <v>0.7082195713851903</v>
       </c>
       <c r="E14" t="n">
-        <v>0.20566771613243862</v>
+        <v>0.44744763065771453</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9982408887560111</v>
+        <v>0.043667592101786945</v>
       </c>
       <c r="G14" t="n">
-        <v>0.028219030301568804</v>
+        <v>0.754267697164857</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9999005102789243</v>
+        <v>0.0027044573457596366</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0</v>
+        <v>0.9999997216136018</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9437979383134146</v>
+        <v>0.9999988204788323</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999999999731288</v>
+        <v>0.9505590027558192</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999956195261349</v>
+        <v>0.9999956946551825</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9966049563079453</v>
+        <v>0.9994507241440305</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7905614223777848</v>
+        <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3147597221919163</v>
+        <v>0.999999999999995</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9947238460304406</v>
+        <v>0.41182708402443113</v>
+      </c>
+      <c r="Q14"/>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9828403309125728</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8898650893366326</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.19121996451249013</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9895915012814628</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.011941726967171218</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9999999998817832</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9999999999999437</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.99995503545039</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9999999999943292</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9991871798198666</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9999911272092071</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8577163664297321</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.9997783339107799</v>
       </c>
     </row>
   </sheetData>
@@ -3332,51 +2945,51 @@
       </c>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.9843687365622258E-27</v>
+        <v>2.2435970010401157E-23</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16532473014221238</v>
+        <v>0.919531218756843</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -3392,13 +3005,13 @@
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9857596383592101</v>
+        <v>0.9931424271951154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8953904600327078</v>
+        <v>0.999999999984305</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -3413,16 +3026,16 @@
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99891387384015</v>
+        <v>0.556108819993767</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9431225529707113</v>
+        <v>0.9999711297270205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9998824108678946</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -3436,19 +3049,19 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33344389733712765</v>
+        <v>0.9999999740479875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999984932138052</v>
+        <v>0.9925614419095689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9894639855216201</v>
+        <v>0.9997795715827275</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9956243378451968</v>
+        <v>0.8353360049194793</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -3461,22 +3074,22 @@
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999304465879</v>
+        <v>0.999999999994299</v>
       </c>
       <c r="E6" t="n">
-        <v>0.46440294229547174</v>
+        <v>0.9506998066446902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998560649783427</v>
+        <v>0.9974304614059577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999994704337861</v>
+        <v>0.6161888964901027</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7324455232685654</v>
+        <v>0.9999999999722557</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3491,22 +3104,22 @@
         <v>117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999957</v>
+        <v>0.9765511332458654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.13230201066624592</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9739240970794104</v>
+        <v>0.9999999999920675</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9976170918791555</v>
+        <v>0.9999968858619362</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2750119786490487</v>
+        <v>0.9983005801275127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9999992378646031</v>
+        <v>0.9884874717527422</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -3517,28 +3130,28 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9981504343568975</v>
+        <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9589804387770995</v>
+        <v>0.9575073934005957</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.9964196835609802</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>0.6805201325975632</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9975766103650554</v>
+        <v>0.9999999931420119</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999857894288959</v>
+        <v>0.999999999999328</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9961893104940328</v>
+        <v>0.9865615194611256</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -3548,31 +3161,31 @@
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999995675826</v>
+        <v>0.971633716061783</v>
       </c>
       <c r="E9" t="n">
-        <v>0.14596545831571606</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9660931518936594</v>
+        <v>0.9999999999999619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9952888346892863</v>
+        <v>0.9999634584692166</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3033139421911776</v>
+        <v>0.9982708840467658</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999906937656626</v>
+        <v>0.9859359204887198</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999999999973881</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9930032226313976</v>
+        <v>0.9849518700520459</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -3581,34 +3194,34 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9994623867220919</v>
+        <v>0.9998262877398476</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8475410062921147</v>
+        <v>0.9999987697138811</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999999998144395</v>
+        <v>0.9999999984454213</v>
       </c>
       <c r="G10" t="n">
-        <v>0.999999999999884</v>
+        <v>0.9972269530259122</v>
       </c>
       <c r="H10" t="n">
-        <v>0.975542127089157</v>
+        <v>0.999999463763265</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9999993159590491</v>
+        <v>0.9999725632647504</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9986334211078226</v>
+        <v>0.9999996160252653</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9999999999919189</v>
+        <v>0.9999184714998955</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9970383602213297</v>
+        <v>0.9999998823422238</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -3616,119 +3229,119 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D11" t="n">
-        <v>1.1018419761033016E-6</v>
+        <v>1.2792301607222889E-5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9895787466236571</v>
+        <v>0.03498445342457357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0048708092747375975</v>
+        <v>0.08600076468850426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04883310548556752</v>
+        <v>0.4735616649846143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6495131629478164</v>
+        <v>1.8527368958709545E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2534551154097517E-4</v>
+        <v>8.618538073212889E-6</v>
       </c>
       <c r="J11" t="n">
-        <v>6.059317089190941E-7</v>
+        <v>0.20561450145721727</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06802959116934515</v>
+        <v>1.0880719042083431E-4</v>
       </c>
       <c r="L11" t="n">
-        <v>4.8218832783275545E-6</v>
+        <v>0.07128732678487337</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007199971857940746</v>
+        <v>0.03846498791336306</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D12" t="n">
-        <v>5.914092013892258E-7</v>
+        <v>7.970890063546676E-7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9977119528902391</v>
+        <v>0.00855991124302713</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005521929811739934</v>
+        <v>0.03588274990773199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06906237527906012</v>
+        <v>0.2983079594026221</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7626696278605923</v>
+        <v>1.808255911450729E-5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.2050019428444525E-4</v>
+        <v>3.7045206047192636E-7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1445571002652883E-7</v>
+        <v>0.10954395377415516</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09594804890486275</v>
+        <v>1.2877903362240595E-5</v>
       </c>
       <c r="L12" t="n">
-        <v>4.174413966828716E-6</v>
+        <v>0.02550944043562775</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009384460788608995</v>
+        <v>0.01447054629953426</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9999999984284543</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="O12"/>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004906330836251249</v>
+        <v>0.02831065064851268</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999998027634674</v>
+        <v>0.9712187453412212</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7137181635066236</v>
+        <v>0.9802291960064075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9241960509931464</v>
+        <v>0.9999999216047837</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9999999999143235</v>
+        <v>0.16029560272547227</v>
       </c>
       <c r="I13" t="n">
-        <v>0.12829459972743218</v>
+        <v>0.023179567322327066</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002985588870767386</v>
+        <v>0.9979575405560428</v>
       </c>
       <c r="K13" t="n">
-        <v>0.951033974213407</v>
+        <v>0.09943832788268481</v>
       </c>
       <c r="L13" t="n">
-        <v>0.012772195126004804</v>
+        <v>0.9840333141964721</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6976430176034333</v>
+        <v>0.9019954565887994</v>
       </c>
       <c r="N13" t="n">
-        <v>0.34087703101832956</v>
+        <v>0.32296890301392955</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4117449313607633</v>
+        <v>0.12094990938227113</v>
       </c>
     </row>
   </sheetData>
@@ -3750,87 +3363,69 @@
       </c>
       <c r="C1"/>
       <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>136</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>138</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>139</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>140</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>141</v>
-      </c>
-      <c r="M1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" t="s">
-        <v>148</v>
-      </c>
-      <c r="T1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U1" t="s">
-        <v>150</v>
-      </c>
-      <c r="V1" t="s">
-        <v>151</v>
-      </c>
-      <c r="W1" t="s">
-        <v>152</v>
-      </c>
-      <c r="X1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.408520064811802E-8</v>
+        <v>1.0509513059791905E-5</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>0.9999999616341166</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -3849,22 +3444,16 @@
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999128</v>
+        <v>0.9980793064595624</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999988722</v>
+        <v>0.9999999961038453</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -3882,25 +3471,19 @@
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.9999999194075094</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999953</v>
+        <v>0.9999999970238971</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -3917,25 +3500,19 @@
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>0.9999999933621578</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999999994845319</v>
+        <v>0.9999997215491923</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -3954,31 +3531,25 @@
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>0.999999999908342</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999998193</v>
+        <v>0.9999310554896967</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>0.9999999997879039</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.999999999996497</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3993,34 +3564,28 @@
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999998693</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999999999968</v>
+        <v>0.9999999999991052</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.999972137825537</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>0.9999999999972227</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999999999970953</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9999999999999993</v>
+        <v>1.0</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -4034,25 +3599,19 @@
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>0.9999999587701689</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999999999997751</v>
+        <v>0.9999999963934687</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
@@ -4061,10 +3620,10 @@
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>0.9999999998992288</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.999999999998976</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -4077,40 +3636,34 @@
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>0.9962974561208013</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>0.9111789123964572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999999999988999</v>
+        <v>0.34755487602332713</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.8888708140470782</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>0.888982232856321</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>0.9973915273234717</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999999999999952</v>
+        <v>0.9744134380118261</v>
       </c>
       <c r="K9" t="n">
-        <v>1.0</v>
+        <v>0.9099813334817484</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -4122,43 +3675,37 @@
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9978275430548715</v>
+        <v>0.9999996734312601</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9960387184093654</v>
+        <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8091300954697218</v>
+        <v>0.9999999984769432</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9953851387022716</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9987546237131357</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9981232357768697</v>
+        <v>0.999999998962617</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9570616943814818</v>
+        <v>0.9999999999767989</v>
       </c>
       <c r="K10" t="n">
-        <v>0.99134630269965</v>
+        <v>1.0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9983441335899012</v>
+        <v>0.8353788325559597</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -4169,25 +3716,19 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0</v>
+        <v>0.9999999583863476</v>
       </c>
       <c r="E11" t="n">
         <v>1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999999999996361</v>
+        <v>0.9999999766415826</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
@@ -4196,19 +3737,19 @@
         <v>1.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.999999999939093</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999995993</v>
       </c>
       <c r="K11" t="n">
         <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.0</v>
+        <v>0.8765158425991679</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9959113420374174</v>
+        <v>1.0</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -4218,49 +3759,43 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991072960896342</v>
+        <v>0.9999999999999768</v>
       </c>
       <c r="E12" t="n">
-        <v>0.997282278496568</v>
+        <v>0.99999999999976</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999921405077336</v>
+        <v>0.99999188000865</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994505221993569</v>
+        <v>0.9999999999992817</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9873380807763252</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9989490866462746</v>
+        <v>1.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9999980092012388</v>
+        <v>1.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.997515570101864</v>
+        <v>0.9999999999997253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9982022560298313</v>
+        <v>0.9908081699859004</v>
       </c>
       <c r="M12" t="n">
-        <v>0.09057658952382863</v>
+        <v>0.9999999999943815</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9980612872956609</v>
+        <v>0.9999999999999071</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -4269,52 +3804,46 @@
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>0.9999999994032525</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.9998658915172371</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999999999712085</v>
+        <v>0.943436902040323</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>0.9997836939199545</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0</v>
+        <v>0.999900113866122</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0</v>
+        <v>0.9999999944208062</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9999999999998981</v>
+        <v>0.9999989013677456</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>0.9998607879229771</v>
       </c>
       <c r="L13" t="n">
-        <v>1.0</v>
+        <v>0.9999954345503391</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9967159712436315</v>
+        <v>0.9994746769790509</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0</v>
+        <v>0.9998031478735508</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9930280229422542</v>
+        <v>0.9999997639980678</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -4322,137 +3851,119 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999997347023982</v>
+        <v>0.9999041309044875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999999529894698</v>
+        <v>0.9999999999999605</v>
       </c>
       <c r="F14" t="n">
-        <v>0.998374392237961</v>
+        <v>0.9999999999998529</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9999989322930968</v>
+        <v>0.9999999999999826</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9999999685973231</v>
+        <v>0.9999999999366057</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9999998031210878</v>
+        <v>0.9999990070027487</v>
       </c>
       <c r="J14" t="n">
-        <v>0.999864816569711</v>
+        <v>0.9999998338394592</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9999981634769117</v>
+        <v>0.9999999999999665</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9999998699951844</v>
+        <v>0.5012565181921514</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9999999999992858</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999994349271311</v>
+        <v>0.9999999999992469</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6441471655385422</v>
+        <v>0.999999962992842</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9999997724862865</v>
+        <v>0.9862469133539228</v>
       </c>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999990364</v>
+        <v>0.9999999999999887</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999999887071</v>
+        <v>0.9999941270426863</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.9848100524484629</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9999999999999265</v>
+        <v>0.9999895339164608</v>
       </c>
       <c r="H15" t="n">
-        <v>0.999999996910957</v>
+        <v>0.9999972252926295</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9999999999981419</v>
+        <v>0.9999999999969705</v>
       </c>
       <c r="J15" t="n">
-        <v>1.0</v>
+        <v>0.9999999952970723</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9999999999971305</v>
+        <v>0.9999938290043593</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9999999999901694</v>
+        <v>0.9998216239489014</v>
       </c>
       <c r="M15" t="n">
-        <v>0.756913173350543</v>
+        <v>0.9999691189116087</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9999999999960301</v>
+        <v>0.9999920411998104</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9999964719987612</v>
+        <v>0.9999999990860954</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9999999997731336</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9970823202797213</v>
+        <v>0.9979652968411341</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>0.9999999991712926</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999999999965477</v>
+        <v>0.9999987017026694</v>
       </c>
       <c r="G16" t="n">
         <v>1.0</v>
@@ -4461,664 +3972,208 @@
         <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0</v>
+        <v>0.9999999999998407</v>
       </c>
       <c r="J16" t="n">
-        <v>0.999999999999991</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.0</v>
+        <v>0.9135462988075606</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9947575435110084</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="N16" t="n">
         <v>1.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9956118070317321</v>
+        <v>1.0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.0</v>
+        <v>0.9999589677373257</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9999993766355088</v>
+        <v>0.9999999990633189</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9999999999667124</v>
+        <v>0.999999221629717</v>
       </c>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>0.791406733725632</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.9997886553104472</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999999999999406</v>
+        <v>0.9999999991456507</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>0.9997879263449827</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0</v>
+        <v>0.9969228551042643</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.9734677105335131</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9732628664216704</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>0.9997961443424753</v>
       </c>
       <c r="L17" t="n">
-        <v>1.0</v>
+        <v>0.011196367060279155</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9969936853110074</v>
+        <v>0.9998017111771814</v>
       </c>
       <c r="N17" t="n">
-        <v>1.0</v>
+        <v>0.9992390107783188</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9990633964967509</v>
+        <v>0.9909723526276025</v>
       </c>
       <c r="P17" t="n">
-        <v>1.0</v>
+        <v>0.34916512736606253</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9999995569534811</v>
+        <v>0.9999909408994255</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9999999999992921</v>
+        <v>0.5597536534445178</v>
       </c>
       <c r="S17" t="n">
-        <v>1.0</v>
+        <v>0.9932654828386117</v>
       </c>
       <c r="T17"/>
       <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998881305316031</v>
+        <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997916109605173</v>
+        <v>0.9999999989932252</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9560134452273581</v>
+        <v>0.9995377627865198</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9997054451857204</v>
+        <v>0.9999999975920062</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9999594661666675</v>
+        <v>0.9999999999346858</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9999079745591035</v>
+        <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9934684792811254</v>
+        <v>1.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9994415430203286</v>
+        <v>0.9999999988969885</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9999255079008053</v>
+        <v>0.9880515819907411</v>
       </c>
       <c r="M18" t="n">
-        <v>1.0</v>
+        <v>0.9999999875255923</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9997752971867259</v>
+        <v>0.9999999991356482</v>
       </c>
       <c r="O18" t="n">
-        <v>0.26257206361741803</v>
+        <v>1.0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9998524066085374</v>
+        <v>0.9999999604674541</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.0</v>
+        <v>0.9999888261618883</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9366107493292486</v>
+        <v>0.9999999999810641</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9997197966697128</v>
+        <v>0.9999999999964155</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9998343706731715</v>
+        <v>0.8840975423428292</v>
       </c>
       <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999914622228</v>
+        <v>0.999991391092237</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999853081546</v>
+        <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997059038021532</v>
+        <v>0.9999999996915885</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9999999539241962</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9999999995499381</v>
+        <v>0.9999999999999807</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9999999941066688</v>
+        <v>0.9999999636195244</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9999824633085965</v>
+        <v>0.9999999976270172</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9999999253581942</v>
+        <v>1.0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9999999966286587</v>
+        <v>0.6157435098555972</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9999999997027753</v>
+        <v>1.0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.999999980966829</v>
+        <v>1.0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7617705825606788</v>
+        <v>0.9999999995307906</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9999999945621318</v>
+        <v>0.9956690653258439</v>
       </c>
       <c r="Q19" t="n">
         <v>1.0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9994043684759777</v>
+        <v>0.9995959146730076</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9999999806569299</v>
+        <v>0.9999999999987134</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9999999844742922</v>
+        <v>0.9997904289064742</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9999999999999603</v>
-      </c>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-    </row>
-    <row r="20">
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.99999999990503</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9999999994170888</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9999999999837251</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9999999639260811</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.9999999998486244</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.9999999997733563</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.9999999994917327</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8159118199809736</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.9999999997252321</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.999999997425691</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.9999999948469832</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.9967651911114592</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.9999999987182918</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.9999999999220041</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.9487465358759601</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.9992137333650497</v>
-      </c>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-    </row>
-    <row r="21">
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9999999252169642</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9999999993931765</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9995928654255686</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.9502086178586987</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.9999999983342387</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.9999996806847594</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.9999922251784081</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.9999999999914482</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.9999987557294103</v>
-      </c>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-    </row>
-    <row r="22">
-      <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9999999998802744</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9999999990179073</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9999999999818404</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9999999156061871</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9999999998018749</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.9999999996172946</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.9999999992463632</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.687552208933649</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.9999999995752831</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.9999999231207495</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.999999989017739</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.9929642805948813</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.9999999975221878</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.9999999999002449</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.9003838271734392</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.9981901872488038</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.9999962041435028</v>
-      </c>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-    </row>
-    <row r="23">
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9999999999974339</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9999999999999909</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9972594205753206</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.997023641776663</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.9999997561940295</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.999999999976898</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.9998693197057432</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.999999993344428</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.9999999990317479</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.9999999983523687</v>
-      </c>
-      <c r="Z23"/>
-      <c r="AA23"/>
-    </row>
-    <row r="24">
-      <c r="C24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9999881767078872</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9999717915483702</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9661174803781184</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9999560880195154</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.999997049662296</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.9999909337701232</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9974875246287952</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.9998897993139945</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.9999932012444307</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9999999999979515</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.9999689475683932</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.22062650127821837</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.9999820851306406</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.9462650020326573</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.9999568115113179</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.9999798072689728</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.9661884693295865</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.9999997221804887</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.9125779353469422</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.9999851807241101</v>
-      </c>
-      <c r="AA24"/>
-    </row>
-    <row r="25">
-      <c r="C25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9999998180036656</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9999999999999979</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9999999981267366</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.9999999999999984</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.999825107026313</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.942979126231469</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.9999999996834141</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.9999992924965931</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.9999973896262588</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.999999999999008</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.9999976087401677</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.9999928945886459</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.9999999436378758</v>
+        <v>0.9999994571169087</v>
       </c>
     </row>
   </sheetData>
